--- a/Assets/Data/Table/Convert/Effect_EffectGroup.xlsx
+++ b/Assets/Data/Table/Convert/Effect_EffectGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A07C0-C721-4D17-B611-1B19EDCFA617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92866F2E-ADCC-49D5-AC98-611E63EEFA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EffectGroup" sheetId="13" r:id="rId1"/>
@@ -568,10 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Target_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,100 +752,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Target.
-TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Unit.
+    <t>State_Crouch_MoveSpeed_Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State_Crouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State_Crouch_DetectPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMp_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDamage_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentHP_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed_AddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetectedCoefficient_AddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRestore_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <t>WhenStartChangeState_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhenEndChangeState_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tb.Target
+TargetFilter</t>
+  </si>
+  <si>
+    <t>TargetFilter_ID</t>
+  </si>
+  <si>
+    <t>Em.Unit.
 NumberType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Unit.
+  </si>
+  <si>
+    <t>Em.Unit.
 CalculateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Unit.
+  </si>
+  <si>
+    <t>Em.Unit.
 ApplyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Effect.
+  </si>
+  <si>
+    <t>Em.Effect.
 OverwriteType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>State_Crouch_MoveSpeed_Slow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>State_Crouch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>State_Crouch_DetectPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHp_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMp_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkDamage_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentHP_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed_AddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetectedCoefficient_AddRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsRestore_End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>While</t>
-  </si>
-  <si>
-    <t>WhenStartChangeState_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WhenEndChangeState_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1407,7 +1401,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1438,55 +1432,55 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="J1" s="33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="O1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
@@ -1500,16 +1494,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
@@ -1522,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>4</v>
@@ -1531,42 +1525,42 @@
         <v>4</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="20" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFNA(_xlfn.SWITCH(G3,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
@@ -1576,25 +1570,25 @@
         <v>10</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="20" t="b">
         <v>1</v>
@@ -1603,30 +1597,30 @@
         <v>0</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="22" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFNA(_xlfn.SWITCH(G4,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
@@ -1636,13 +1630,13 @@
         <v>5</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="22">
         <v>10</v>
@@ -1651,10 +1645,10 @@
         <v>0.1</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="22" t="b">
         <v>1</v>
@@ -1663,31 +1657,31 @@
         <v>1</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="19" t="str">
         <f>A5</f>
         <v>AtkPowerUp</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="20" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFNA(_xlfn.SWITCH(G5,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
@@ -1697,25 +1691,25 @@
         <v>10</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="20" t="b">
         <v>0</v>
@@ -1724,31 +1718,31 @@
         <v>0</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="19" t="str">
         <f t="shared" ref="B6:B7" si="0">A6</f>
         <v>MaxHpUp</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="20" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFNA(_xlfn.SWITCH(G6,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
@@ -1758,25 +1752,25 @@
         <v>100</v>
       </c>
       <c r="J6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>32</v>
-      </c>
       <c r="O6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="20" t="b">
         <v>0</v>
@@ -1785,31 +1779,31 @@
         <v>0</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MaxMpUp</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="20" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFNA(_xlfn.SWITCH(G7,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
@@ -1819,25 +1813,25 @@
         <v>100</v>
       </c>
       <c r="J7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="N7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>32</v>
-      </c>
       <c r="O7" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="20" t="b">
         <v>0</v>
@@ -1846,58 +1840,58 @@
         <v>0</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="24" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFNA(_xlfn.SWITCH(G8,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
         <v/>
       </c>
       <c r="I8" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="24" t="b">
         <v>1</v>
@@ -1906,58 +1900,58 @@
         <v>0</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="24" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFNA(_xlfn.SWITCH(G9,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
         <v/>
       </c>
       <c r="I9" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="24">
         <v>10</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="Q9" s="24" t="b">
         <v>1</v>
@@ -1966,58 +1960,58 @@
         <v>0</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="27" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFNA(_xlfn.SWITCH(G10,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
         <v/>
       </c>
       <c r="I10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" s="27">
         <v>10</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="27" t="b">
         <v>1</v>
@@ -2026,58 +2020,58 @@
         <v>0</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="G11" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="30" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFNA(_xlfn.SWITCH(G11,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
         <v/>
       </c>
       <c r="I11" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>36</v>
-      </c>
       <c r="M11" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="30" t="b">
         <v>1</v>
@@ -2086,30 +2080,30 @@
         <v>0</v>
       </c>
       <c r="S11" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="20" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFNA(_xlfn.SWITCH(G12,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
@@ -2119,117 +2113,117 @@
         <v>30</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R12" s="20" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="20" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFNA(_xlfn.SWITCH(G13,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
         <v/>
       </c>
       <c r="I13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="M13" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R13" s="20" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" s="20" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFNA(_xlfn.SWITCH(G14,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
@@ -2239,25 +2233,25 @@
         <v>50</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="20" t="b">
         <v>1</v>
@@ -2266,30 +2260,30 @@
         <v>0</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="20" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFNA(_xlfn.SWITCH(G15,"Plus","+","Minus","-","Multiply","×","Divide","÷"),"")</f>
@@ -2299,25 +2293,25 @@
         <v>50</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="20" t="b">
         <v>1</v>
@@ -2326,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
